--- a/optics/data.xlsx
+++ b/optics/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\main_files\NTU\1st_grade\physics\physics_exp\optics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ED91C33-5673-4030-A967-FD7D5687DABC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70F2C31-C80D-4057-914C-CA34572374DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1181E31-8092-4D15-AF1C-C778E29D7167}"/>
   </bookViews>
@@ -178,8 +178,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -496,15 +499,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82257EA5-CA5A-44A5-B5C7-04D4F2B67AE1}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="206" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="13" max="13" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -534,8 +538,14 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
+      <c r="F2">
+        <v>0.7</v>
+      </c>
       <c r="H2" t="s">
         <v>12</v>
+      </c>
+      <c r="I2">
+        <v>66.8</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
@@ -551,115 +561,172 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C3">
+        <v>9.9</v>
+      </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
+      <c r="F3">
+        <v>92</v>
+      </c>
       <c r="H3" t="s">
         <v>16</v>
       </c>
+      <c r="I3">
+        <v>4.9000000000000004</v>
+      </c>
       <c r="J3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" t="e">
-        <f>(pi/2-ATAN(I3/I2)/2)*180/pi</f>
-        <v>#NAME?</v>
+      <c r="K3">
+        <f>(PI()/2-ATAN(I3/I2)/2)*180/PI()</f>
+        <v>87.902339851106717</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
       </c>
       <c r="P3">
-        <f>TAN(P2)</f>
-        <v>0</v>
+        <f>TAN(56*PI()/180)</f>
+        <v>1.4825609685127403</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4">
+        <f>ATAN(B3/B8)</f>
+        <v>5.321059304776541E-2</v>
+      </c>
+      <c r="C4">
+        <f>ATAN(C3/C8)</f>
+        <v>0.10719620145719694</v>
+      </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
+      <c r="F4" s="1">
+        <v>6.3280000000000004E-5</v>
+      </c>
       <c r="H4" t="s">
         <v>20</v>
       </c>
+      <c r="I4">
+        <v>6.9</v>
+      </c>
       <c r="J4" t="s">
         <v>18</v>
       </c>
-      <c r="K4" t="e">
-        <f>(pi-ATAN(I4/I2))*180/pi-K3</f>
-        <v>#NAME?</v>
+      <c r="K4">
+        <f>(PI()-ATAN(I4/I2))*180/PI()-K3</f>
+        <v>86.200298203476308</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" t="e">
-        <f>K2*(SIN(K3)-SIN(K4))</f>
-        <v>#NAME?</v>
+      <c r="M4">
+        <f>K2*(SIN(K3*PI()/180)-SIN(K4*PI()/180))</f>
+        <v>7.640380975812433E-5</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6.3280000000000004E-5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6.3280000000000004E-5</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="e">
+      <c r="F5">
         <f>SIN(ATAN(F2/F3))/F4</f>
-        <v>#DIV/0!</v>
+        <v>120.23507300067247</v>
       </c>
       <c r="H5" t="s">
         <v>21</v>
       </c>
+      <c r="I5">
+        <v>7.8</v>
+      </c>
       <c r="J5" t="s">
         <v>19</v>
       </c>
-      <c r="K5" t="e">
-        <f>(pi-ATAN(I5/I2))*180/pi-K3</f>
-        <v>#NAME?</v>
+      <c r="K5">
+        <f>(PI()-ATAN(I5/I2))*180/PI()-K3</f>
+        <v>85.437593811169251</v>
       </c>
       <c r="L5" t="s">
         <v>23</v>
       </c>
-      <c r="M5" t="e">
-        <f>K2*(SIN(K3)-SIN(K5))/2</f>
-        <v>#NAME?</v>
+      <c r="M5">
+        <f>K2*(SIN(K3*PI()/180)-SIN(K5*PI()/180))/2</f>
+        <v>6.2465103304912292E-5</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="e">
+      <c r="B6">
         <f>(B5-B9)/B9*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C6" t="e">
+        <v>-4.8161387017864943</v>
+      </c>
+      <c r="C6">
         <f>(C5-C9)/C9*100</f>
-        <v>#DIV/0!</v>
+        <v>-5.3677591939092784</v>
+      </c>
+      <c r="F6">
+        <f>F5*2.54</f>
+        <v>305.39708542170808</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.25E-3</v>
+      </c>
+      <c r="C7">
+        <v>1.25E-3</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>92</v>
+      </c>
+      <c r="C8">
+        <v>92</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="e">
+        <v>4</v>
+      </c>
+      <c r="B9">
         <f>B7*SIN(ATAN(B3/B8))/B2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C9" t="e">
+        <v>6.6481858517739812E-5</v>
+      </c>
+      <c r="C9">
         <f>C7*SIN(ATAN(C3/C8))/C2</f>
-        <v>#DIV/0!</v>
+        <v>6.6869387706528001E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>1/800</f>
+        <v>1.25E-3</v>
       </c>
     </row>
   </sheetData>
